--- a/excels/basic_types.xlsx
+++ b/excels/basic_types.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snatic/go/src/snatic/excelizor/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoPath\src\snatic\excelizor\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="3180" windowWidth="27320" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="3165" yWindow="3180" windowWidth="27315" windowHeight="16875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -90,12 +90,18 @@
   </si>
   <si>
     <t>2.6</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -144,6 +150,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -411,21 +420,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -442,7 +451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,43 +491,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>345</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
